--- a/Base_datos_sintesis modelo 2_ptes_SNC_SNP.xlsx
+++ b/Base_datos_sintesis modelo 2_ptes_SNC_SNP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upbeduco-my.sharepoint.com/personal/juanca_suarez_upb_edu_co/Documents/Documentos/Doctorado_UPB/Pasantia 2022/Procesamiento JAMOVE tesis_marzo_junio 2022 pasantia/Solicitud Andres_aprendizaje maquina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{90A20D42-D8EA-4311-834C-16BA0E39D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1441AC76-A8F1-4E12-B0EB-5F7A3A73B7F9}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{90A20D42-D8EA-4311-834C-16BA0E39D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAACDFA1-FAA6-49B9-B427-7393D02A8721}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3EFD2C7-FD23-4654-91AA-86827E013FF0}"/>
   </bookViews>
@@ -36,11 +36,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A8287C8B-CC9A-4102-A24F-009239626746}</author>
+    <author>tc={CCC1BFB3-6A4C-4DB7-A62F-60BC799EF206}</author>
+    <author>tc={D8E2AD55-D363-4EC3-A6C9-24805D9C5862}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A8287C8B-CC9A-4102-A24F-009239626746}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    n=neurológico (SNC). nm=neuromuscular (SNP)</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{CCC1BFB3-6A4C-4DB7-A62F-60BC799EF206}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Síntoma de náuseas</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{D8E2AD55-D363-4EC3-A6C9-24805D9C5862}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Alteración en la tercera rama del trigémino para realizar el movimiento de diducción mandibular</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
-  <si>
-    <t>Codigo paciente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>p001</t>
   </si>
@@ -300,21 +333,6 @@
     <t>p114</t>
   </si>
   <si>
-    <t>Categoria SNC/SNP</t>
-  </si>
-  <si>
-    <t>Náuseas actual?</t>
-  </si>
-  <si>
-    <t>V3 porción motora diducción</t>
-  </si>
-  <si>
-    <t>Arti_voc_D2MFCC8_std_O_PRE***</t>
-  </si>
-  <si>
-    <t>p2_Y10_mean_DASDV_RIH***</t>
-  </si>
-  <si>
     <t>neurológicas (SNC)</t>
   </si>
   <si>
@@ -334,13 +352,37 @@
   </si>
   <si>
     <t>alterado 1</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Categoria_n_nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauseas </t>
+  </si>
+  <si>
+    <t>diduccion_mandibular</t>
+  </si>
+  <si>
+    <t>p2_Y10_mean_DASDV_RIH</t>
+  </si>
+  <si>
+    <t>Protocolo 2: sEMG</t>
+  </si>
+  <si>
+    <t>p3_Arti_voc_D2MFCC8_std_O_PRE</t>
+  </si>
+  <si>
+    <t>Protocolo 3: voz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,19 +412,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -412,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,16 +466,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -451,6 +490,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Juan Camilo Suarez Escudero" id="{73F8CDB7-4080-46C9-95BC-900189C01E7B}" userId="Juan Camilo Suarez Escudero" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,6 +793,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-08-10T12:36:21.40" personId="{73F8CDB7-4080-46C9-95BC-900189C01E7B}" id="{A8287C8B-CC9A-4102-A24F-009239626746}">
+    <text>n=neurológico (SNC). nm=neuromuscular (SNP)</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2022-08-10T12:37:31.06" personId="{73F8CDB7-4080-46C9-95BC-900189C01E7B}" id="{CCC1BFB3-6A4C-4DB7-A62F-60BC799EF206}">
+    <text>Síntoma de náuseas</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-08-10T12:38:53.96" personId="{73F8CDB7-4080-46C9-95BC-900189C01E7B}" id="{D8E2AD55-D363-4EC3-A6C9-24805D9C5862}">
+    <text>Alteración en la tercera rama del trigémino para realizar el movimiento de diducción mandibular</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F35857-8189-4823-9D7D-3C3CFF88F672}">
   <sheetPr>
@@ -757,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,29 +826,29 @@
     <col min="4" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -809,7 +868,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -826,7 +885,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -846,7 +905,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -866,7 +925,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -886,7 +945,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -906,7 +965,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -926,7 +985,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -943,7 +1002,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -963,7 +1022,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -983,7 +1042,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -1003,7 +1062,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -1023,7 +1082,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -1043,7 +1102,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -1063,7 +1122,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -1083,7 +1142,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -1103,7 +1162,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -1123,7 +1182,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -1143,7 +1202,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1160,7 +1219,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -1180,7 +1239,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -1200,7 +1259,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -1217,7 +1276,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -1237,7 +1296,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -1257,7 +1316,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -1277,7 +1336,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -1297,7 +1356,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -1317,7 +1376,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -1337,7 +1396,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -1357,7 +1416,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -1374,7 +1433,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -1391,7 +1450,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -1411,7 +1470,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -1431,7 +1490,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -1451,7 +1510,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -1471,7 +1530,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -1491,7 +1550,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6">
         <v>0</v>
@@ -1511,7 +1570,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
@@ -1528,7 +1587,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -1548,7 +1607,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1568,7 +1627,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1588,7 +1647,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1608,7 +1667,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -1628,7 +1687,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -1648,7 +1707,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -1668,7 +1727,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -1688,7 +1747,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -1708,7 +1767,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -1722,7 +1781,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -1742,7 +1801,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -1759,7 +1818,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -1773,7 +1832,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
@@ -1790,7 +1849,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
@@ -1810,7 +1869,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
@@ -1830,7 +1889,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -1850,7 +1909,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -1870,7 +1929,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -1890,7 +1949,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -1910,7 +1969,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
@@ -1930,7 +1989,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -1950,7 +2009,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -1970,7 +2029,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -1990,7 +2049,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -2010,7 +2069,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -2030,7 +2089,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6">
         <v>1</v>
@@ -2050,7 +2109,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6">
         <v>1</v>
@@ -2070,7 +2129,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -2090,7 +2149,7 @@
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6">
         <v>0</v>
@@ -2108,7 +2167,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -2128,7 +2187,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -2148,7 +2207,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="6">
         <v>0</v>
@@ -2168,7 +2227,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -2188,7 +2247,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -2208,7 +2267,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -2228,7 +2287,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -2248,7 +2307,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -2268,7 +2327,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -2288,7 +2347,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -2308,7 +2367,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -2328,7 +2387,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6">
         <v>0</v>
@@ -2348,7 +2407,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -2368,7 +2427,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
@@ -2388,7 +2447,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -2408,7 +2467,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="6">
         <v>0</v>
@@ -2428,7 +2487,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="6">
         <v>0</v>
@@ -2448,7 +2507,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="6">
         <v>0</v>
@@ -2467,7 +2526,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{B3F35857-8189-4823-9D7D-3C3CFF88F672}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2475,33 +2533,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88088A58-A8DB-4192-92FB-6DE20720CEF0}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88088A58-A8DB-4192-92FB-6DE20720CEF0}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -2509,16 +2567,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2526,17 +2584,34 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>